--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex06_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex06_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Within a medical office in Rhodes Island, Kal'tsit holds a meaningful conversation with a famous band member who should have been in Siesta at the time. However, the true meaning of that conversation may not become apparent until much later…
+    <t xml:space="preserve">Within a medical office in Rhodes Island, Kal'tsit holds a meaningful conversation with a famous band member who should have been in Siesta at the time. However, the true meaning of that conversation may not become apparent until much later...
 </t>
   </si>
   <si>
